--- a/data/preprocessed/video/S3_sway.xlsx
+++ b/data/preprocessed/video/S3_sway.xlsx
@@ -1043,7 +1043,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.5554121892703776</v>
+        <v>0.555331545734965</v>
       </c>
       <c r="C4" t="n">
         <v>0.04673292877159735</v>
@@ -1187,7 +1187,7 @@
         <v>0</v>
       </c>
       <c r="AX4" t="n">
-        <v>0</v>
+        <v>8.064353541259248e-05</v>
       </c>
       <c r="AY4" t="n">
         <v>0</v>
@@ -45813,7 +45813,7 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>0.3192274349307473</v>
+        <v>0.3191467913953348</v>
       </c>
       <c r="C246" t="n">
         <v>0.04505957541178605</v>
@@ -45957,7 +45957,7 @@
         <v>0</v>
       </c>
       <c r="AX246" t="n">
-        <v>0</v>
+        <v>8.064353541259248e-05</v>
       </c>
       <c r="AY246" t="n">
         <v>0</v>
@@ -47848,7 +47848,7 @@
         <v>255</v>
       </c>
       <c r="B257" t="n">
-        <v>0.4700106852684421</v>
+        <v>0.4699300417330296</v>
       </c>
       <c r="C257" t="n">
         <v>0.06362774944053547</v>
@@ -47992,7 +47992,7 @@
         <v>0</v>
       </c>
       <c r="AX257" t="n">
-        <v>0</v>
+        <v>8.064353541259248e-05</v>
       </c>
       <c r="AY257" t="n">
         <v>0</v>
@@ -49143,7 +49143,7 @@
         <v>262</v>
       </c>
       <c r="B264" t="n">
-        <v>0.5309771980403621</v>
+        <v>0.5308965545049495</v>
       </c>
       <c r="C264" t="n">
         <v>0.04479748392169513</v>
@@ -49287,7 +49287,7 @@
         <v>0</v>
       </c>
       <c r="AX264" t="n">
-        <v>0</v>
+        <v>8.064353541259248e-05</v>
       </c>
       <c r="AY264" t="n">
         <v>0</v>
@@ -50447,7 +50447,7 @@
         <v>0.03616862563254773</v>
       </c>
       <c r="E271" t="n">
-        <v>0.06108747807503881</v>
+        <v>0.06106731719118566</v>
       </c>
       <c r="F271" t="n">
         <v>0.03717666982520514</v>
@@ -50591,7 +50591,7 @@
         <v>0</v>
       </c>
       <c r="BA271" t="n">
-        <v>0</v>
+        <v>2.016088385314812e-05</v>
       </c>
       <c r="BB271" t="n">
         <v>0</v>
